--- a/lesson6/老板要的資訊.xlsx
+++ b/lesson6/老板要的資訊.xlsx
@@ -424,595 +424,595 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>士林</t>
+          <t>龍潭</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>菜寮</t>
+          <t>屏東（琉球）</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>苗栗</t>
+          <t>新竹</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>古亭</t>
+          <t>鳳山</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>竹東</t>
+          <t>前金</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>新港</t>
+          <t>小港</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>平鎮</t>
+          <t>崙背</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>新營</t>
+          <t>線西</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>觀音</t>
+          <t>前鎮</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>大園</t>
+          <t>馬祖</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>冬山</t>
+          <t>苗栗</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>忠明</t>
+          <t>中山</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>桃園</t>
+          <t>觀音</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>豐原</t>
+          <t>三義</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>屏東(枋山)</t>
+          <t>新北(樹林)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>彰化</t>
+          <t>左營</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>沙鹿</t>
+          <t>平鎮</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>復興</t>
+          <t>臺南</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>屏東</t>
+          <t>陽明</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>土城</t>
+          <t>菜寮</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>金門</t>
+          <t>麥寮</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>大寮</t>
+          <t>忠明</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>花蓮（美崙）</t>
+          <t>基隆</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>中壢</t>
+          <t>復興</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>仁武</t>
+          <t>林園</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>新竹</t>
+          <t>彰化（員林）</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>林口</t>
+          <t>三重</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>三重</t>
+          <t>斗六</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>頭份</t>
+          <t>中壢</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>馬公</t>
+          <t>高雄（湖內）</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>朴子</t>
+          <t>楠梓</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>埔里</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>三義</t>
+          <t>永和</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>宜蘭</t>
+          <t>潮州</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>竹山</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>富貴角</t>
+          <t>大城</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>大里</t>
+          <t>汐止</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>高雄（湖內）</t>
+          <t>西屯</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>淡水</t>
+          <t>金門</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>臺南（麻豆）</t>
+          <t>湖口</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>松山</t>
+          <t>臺東</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>竹山</t>
+          <t>屏東</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>恆春</t>
+          <t>新港</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>西屯</t>
+          <t>恆春</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>新北(樹林)</t>
+          <t>仁武</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>新店</t>
+          <t>萬里</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>崙背</t>
+          <t>竹東</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>斗六</t>
+          <t>板橋</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>林園</t>
+          <t>花蓮（美崙）</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>新莊</t>
+          <t>關山</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>馬祖</t>
+          <t>頭份</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>臺西</t>
+          <t>冬山</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>萬里</t>
+          <t>馬公</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>板橋</t>
+          <t>彰化</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>鳳山</t>
+          <t>美濃</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>萬華</t>
+          <t>松山</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>汐止</t>
+          <t>富貴角</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>基隆</t>
+          <t>嘉義</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>南投</t>
+          <t>臺西</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>前金</t>
+          <t>林口</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>臺東</t>
+          <t>豐原</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>左營</t>
+          <t>大寮</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>大城</t>
+          <t>古亭</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>關山</t>
+          <t>桃園</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>楠梓</t>
+          <t>萬華</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>花蓮</t>
+          <t>二林</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>永和</t>
+          <t>大園</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>臺南</t>
+          <t>新店</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>嘉義</t>
+          <t>花蓮</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>龍潭</t>
+          <t>宜蘭</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>善化</t>
+          <t>朴子</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>埔里</t>
+          <t>南投</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>前鎮</t>
+          <t>土城</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>安南</t>
+          <t>善化</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>小港</t>
+          <t>新莊</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>美濃</t>
+          <t>新營</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>屏東（琉球）</t>
+          <t>淡水</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>橋頭</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>彰化（員林）</t>
+          <t>大里</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>湖口</t>
+          <t>安南</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>二林</t>
+          <t>沙鹿</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>潮州</t>
+          <t>士林</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>橋頭</t>
+          <t>臺南（麻豆）</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>線西</t>
+          <t>屏東(枋山)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>麥寮</t>
+          <t>大同</t>
         </is>
       </c>
     </row>

--- a/lesson6/老板要的資訊.xlsx
+++ b/lesson6/老板要的資訊.xlsx
@@ -424,196 +424,196 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>龍潭</t>
+          <t>頭份</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>屏東（琉球）</t>
+          <t>陽明</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>新竹</t>
+          <t>鳳山</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>鳳山</t>
+          <t>恆春</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>前金</t>
+          <t>西屯</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>小港</t>
+          <t>桃園</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>崙背</t>
+          <t>三義</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>線西</t>
+          <t>臺東</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>前鎮</t>
+          <t>新竹</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>馬祖</t>
+          <t>新莊</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>苗栗</t>
+          <t>竹山</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>花蓮（美崙）</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>觀音</t>
+          <t>菜寮</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>三義</t>
+          <t>前鎮</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>新北(樹林)</t>
+          <t>中山</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>左營</t>
+          <t>屏東（琉球）</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>平鎮</t>
+          <t>淡水</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>臺南</t>
+          <t>新營</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>復興</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>菜寮</t>
+          <t>萬里</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>麥寮</t>
+          <t>高雄（湖內）</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>忠明</t>
+          <t>斗六</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>基隆</t>
+          <t>沙鹿</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>復興</t>
+          <t>大同</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>林園</t>
+          <t>二林</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>彰化（員林）</t>
+          <t>潮州</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>三重</t>
+          <t>金門</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>斗六</t>
+          <t>平鎮</t>
         </is>
       </c>
     </row>
@@ -627,350 +627,350 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>高雄（湖內）</t>
+          <t>汐止</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>楠梓</t>
+          <t>朴子</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>埔里</t>
+          <t>馬公</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>永和</t>
+          <t>觀音</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>潮州</t>
+          <t>宜蘭</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>竹山</t>
+          <t>崙背</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>大城</t>
+          <t>豐原</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>汐止</t>
+          <t>彰化（員林）</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>西屯</t>
+          <t>苗栗</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>金門</t>
+          <t>麥寮</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>湖口</t>
+          <t>新港</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>臺東</t>
+          <t>竹東</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>屏東</t>
+          <t>大城</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>新港</t>
+          <t>橋頭</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>恆春</t>
+          <t>永和</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>仁武</t>
+          <t>新北(樹林)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>萬里</t>
+          <t>三重</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>竹東</t>
+          <t>南投</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>板橋</t>
+          <t>臺南（麻豆）</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>花蓮（美崙）</t>
+          <t>關山</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>關山</t>
+          <t>屏東(枋山)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>頭份</t>
+          <t>大里</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>冬山</t>
+          <t>小港</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>馬公</t>
+          <t>林口</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>彰化</t>
+          <t>古亭</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>美濃</t>
+          <t>臺西</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>松山</t>
+          <t>仁武</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>富貴角</t>
+          <t>彰化</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>嘉義</t>
+          <t>楠梓</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>臺西</t>
+          <t>大寮</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>林口</t>
+          <t>龍潭</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>豐原</t>
+          <t>富貴角</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>大寮</t>
+          <t>馬祖</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>古亭</t>
+          <t>新店</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>桃園</t>
+          <t>林園</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>萬華</t>
+          <t>左營</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>二林</t>
+          <t>臺南</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>大園</t>
+          <t>松山</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>新店</t>
+          <t>板橋</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>花蓮</t>
+          <t>美濃</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>宜蘭</t>
+          <t>士林</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>朴子</t>
+          <t>大園</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>南投</t>
+          <t>花蓮</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>土城</t>
+          <t>冬山</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>善化</t>
+          <t>湖口</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>新莊</t>
+          <t>基隆</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>新營</t>
+          <t>忠明</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>淡水</t>
+          <t>萬華</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>橋頭</t>
+          <t>線西</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>大里</t>
+          <t>屏東</t>
         </is>
       </c>
     </row>
@@ -984,35 +984,35 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>沙鹿</t>
+          <t>埔里</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>士林</t>
+          <t>前金</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>臺南（麻豆）</t>
+          <t>嘉義</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>屏東(枋山)</t>
+          <t>善化</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>土城</t>
         </is>
       </c>
     </row>
